--- a/docs/timetable/ALL.xlsx
+++ b/docs/timetable/ALL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politechnikawroclawska-my.sharepoint.com/personal/281037_student_pwr_edu_pl/Documents/2 SEM/PO-PROJEKT/dds/delay-distribution-simulation/docs/timetable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="570" documentId="11_AD4DADEC636C813AC809E42010DC40885ADEDD95" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0706BF3F-0E4B-4668-8A6E-F05DEEBFFD2C}"/>
+  <xr:revisionPtr revIDLastSave="571" documentId="11_AD4DADEC636C813AC809E42010DC40885ADEDD95" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{411303D5-5CDA-45C2-A31A-F62AD331C5BB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -172,7 +172,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -467,17 +467,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="L62" sqref="L62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -485,7 +485,7 @@
         <v>0.25555555555555554</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -526,7 +526,7 @@
         <v>69295</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -570,7 +570,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -578,7 +578,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -589,51 +589,51 @@
         <v>159</v>
       </c>
       <c r="D6">
-        <f>D4+$B$6</f>
+        <f t="shared" ref="D6:N6" si="0">D4+$B$6</f>
         <v>216</v>
       </c>
       <c r="E6">
-        <f>E4+$B$6</f>
+        <f t="shared" si="0"/>
         <v>345</v>
       </c>
       <c r="F6">
-        <f>F4+$B$6</f>
+        <f t="shared" si="0"/>
         <v>459</v>
       </c>
       <c r="G6">
-        <f>G4+$B$6</f>
+        <f t="shared" si="0"/>
         <v>563</v>
       </c>
       <c r="H6">
-        <f>H4+$B$6</f>
+        <f t="shared" si="0"/>
         <v>636</v>
       </c>
       <c r="I6">
-        <f>I4+$B$6</f>
+        <f t="shared" si="0"/>
         <v>699</v>
       </c>
       <c r="J6">
-        <f>J4+$B$6</f>
+        <f t="shared" si="0"/>
         <v>779</v>
       </c>
       <c r="K6">
-        <f>K4+$B$6</f>
+        <f t="shared" si="0"/>
         <v>899</v>
       </c>
       <c r="L6">
-        <f>L4+$B$6</f>
+        <f t="shared" si="0"/>
         <v>979</v>
       </c>
       <c r="M6">
-        <f>M4+$B$6</f>
+        <f t="shared" si="0"/>
         <v>1029</v>
       </c>
       <c r="N6">
-        <f>N4+$B$6</f>
+        <f t="shared" si="0"/>
         <v>1149</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -674,7 +674,7 @@
         <v>69256</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -718,7 +718,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -726,7 +726,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -734,55 +734,55 @@
         <v>159</v>
       </c>
       <c r="C11">
-        <f>C9+$B$11</f>
+        <f t="shared" ref="C11:N11" si="1">C9+$B$11</f>
         <v>170</v>
       </c>
       <c r="D11">
-        <f>D9+$B$11</f>
+        <f t="shared" si="1"/>
         <v>225</v>
       </c>
       <c r="E11">
-        <f>E9+$B$11</f>
+        <f t="shared" si="1"/>
         <v>291</v>
       </c>
       <c r="F11">
-        <f>F9+$B$11</f>
+        <f t="shared" si="1"/>
         <v>379</v>
       </c>
       <c r="G11">
-        <f>G9+$B$11</f>
+        <f t="shared" si="1"/>
         <v>417</v>
       </c>
       <c r="H11">
-        <f>H9+$B$11</f>
+        <f t="shared" si="1"/>
         <v>519</v>
       </c>
       <c r="I11">
-        <f>I9+$B$11</f>
+        <f t="shared" si="1"/>
         <v>737</v>
       </c>
       <c r="J11">
-        <f>J9+$B$11</f>
+        <f t="shared" si="1"/>
         <v>809</v>
       </c>
       <c r="K11">
-        <f>K9+$B$11</f>
+        <f t="shared" si="1"/>
         <v>860</v>
       </c>
       <c r="L11">
-        <f>L9+$B$11</f>
+        <f t="shared" si="1"/>
         <v>904</v>
       </c>
       <c r="M11">
-        <f>M9+$B$11</f>
+        <f t="shared" si="1"/>
         <v>986</v>
       </c>
       <c r="N11">
-        <f>N9+$B$11</f>
+        <f t="shared" si="1"/>
         <v>1064</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -799,7 +799,7 @@
         <v>69205</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -819,17 +819,17 @@
         <v>694</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -853,7 +853,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>3</v>
       </c>
@@ -870,7 +870,7 @@
         <v>60265</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -890,17 +890,17 @@
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -924,7 +924,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>3</v>
       </c>
@@ -965,7 +965,7 @@
         <v>66569</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1009,12 +1009,12 @@
         <v>870</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1022,55 +1022,55 @@
         <v>145</v>
       </c>
       <c r="C30">
-        <f>C28+$B$30</f>
+        <f t="shared" ref="C30:N30" si="2">C28+$B$30</f>
         <v>150</v>
       </c>
       <c r="D30">
-        <f>D28+$B$30</f>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="E30">
-        <f>E28+$B$30</f>
+        <f t="shared" si="2"/>
         <v>305</v>
       </c>
       <c r="F30">
-        <f>F28+$B$30</f>
+        <f t="shared" si="2"/>
         <v>385</v>
       </c>
       <c r="G30">
-        <f>G28+$B$30</f>
+        <f t="shared" si="2"/>
         <v>455</v>
       </c>
       <c r="H30">
-        <f>H28+$B$30</f>
+        <f t="shared" si="2"/>
         <v>535</v>
       </c>
       <c r="I30">
-        <f>I28+$B$30</f>
+        <f t="shared" si="2"/>
         <v>610</v>
       </c>
       <c r="J30">
-        <f>J28+$B$30</f>
+        <f t="shared" si="2"/>
         <v>705</v>
       </c>
       <c r="K30">
-        <f>K28+$B$30</f>
+        <f t="shared" si="2"/>
         <v>775</v>
       </c>
       <c r="L30">
-        <f>L28+$B$30</f>
+        <f t="shared" si="2"/>
         <v>885</v>
       </c>
       <c r="M30">
-        <f>M28+$B$30</f>
+        <f t="shared" si="2"/>
         <v>925</v>
       </c>
       <c r="N30">
-        <f>N28+$B$30</f>
+        <f t="shared" si="2"/>
         <v>1015</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>3</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>67010</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1155,12 +1155,12 @@
         <v>895</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1168,55 +1168,55 @@
         <v>145</v>
       </c>
       <c r="C35">
-        <f>C33+$B$30</f>
+        <f t="shared" ref="C35:N35" si="3">C33+$B$30</f>
         <v>154</v>
       </c>
       <c r="D35">
-        <f>D33+$B$30</f>
+        <f t="shared" si="3"/>
         <v>235</v>
       </c>
       <c r="E35">
-        <f>E33+$B$30</f>
+        <f t="shared" si="3"/>
         <v>300</v>
       </c>
       <c r="F35">
-        <f>F33+$B$30</f>
+        <f t="shared" si="3"/>
         <v>375</v>
       </c>
       <c r="G35">
-        <f>G33+$B$30</f>
+        <f t="shared" si="3"/>
         <v>455</v>
       </c>
       <c r="H35">
-        <f>H33+$B$30</f>
+        <f t="shared" si="3"/>
         <v>555</v>
       </c>
       <c r="I35">
-        <f>I33+$B$30</f>
+        <f t="shared" si="3"/>
         <v>615</v>
       </c>
       <c r="J35">
-        <f>J33+$B$30</f>
+        <f t="shared" si="3"/>
         <v>690</v>
       </c>
       <c r="K35">
-        <f>K33+$B$30</f>
+        <f t="shared" si="3"/>
         <v>775</v>
       </c>
       <c r="L35">
-        <f>L33+$B$30</f>
+        <f t="shared" si="3"/>
         <v>855</v>
       </c>
       <c r="M35">
-        <f>M33+$B$30</f>
+        <f t="shared" si="3"/>
         <v>935</v>
       </c>
       <c r="N35">
-        <f>N33+$B$30</f>
+        <f t="shared" si="3"/>
         <v>1040</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>3</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>69823</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -1265,12 +1265,12 @@
         <v>790</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -1278,31 +1278,31 @@
         <v>121</v>
       </c>
       <c r="C41">
-        <f>C39+$B$41</f>
+        <f t="shared" ref="C41:H41" si="4">C39+$B$41</f>
         <v>191</v>
       </c>
       <c r="D41">
-        <f>D39+$B$41</f>
+        <f t="shared" si="4"/>
         <v>371</v>
       </c>
       <c r="E41">
-        <f>E39+$B$41</f>
+        <f t="shared" si="4"/>
         <v>482</v>
       </c>
       <c r="F41">
-        <f>F39+$B$41</f>
+        <f t="shared" si="4"/>
         <v>641</v>
       </c>
       <c r="G41">
-        <f>G39+$B$41</f>
+        <f t="shared" si="4"/>
         <v>761</v>
       </c>
       <c r="H41">
-        <f>H39+$B$41</f>
+        <f t="shared" si="4"/>
         <v>911</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>3</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>69848</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -1351,12 +1351,12 @@
         <v>780</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1364,31 +1364,31 @@
         <v>121</v>
       </c>
       <c r="C46">
-        <f>C44+$B$46</f>
+        <f t="shared" ref="C46:H46" si="5">C44+$B$46</f>
         <v>231</v>
       </c>
       <c r="D46">
-        <f>D44+$B$46</f>
+        <f t="shared" si="5"/>
         <v>331</v>
       </c>
       <c r="E46">
-        <f>E44+$B$46</f>
+        <f t="shared" si="5"/>
         <v>501</v>
       </c>
       <c r="F46">
-        <f>F44+$B$46</f>
+        <f t="shared" si="5"/>
         <v>621</v>
       </c>
       <c r="G46">
-        <f>G44+$B$46</f>
+        <f t="shared" si="5"/>
         <v>776</v>
       </c>
       <c r="H46">
-        <f>H44+$B$46</f>
+        <f t="shared" si="5"/>
         <v>901</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>3</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>66422</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -1473,12 +1473,12 @@
         <v>820</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -1486,55 +1486,55 @@
         <v>172</v>
       </c>
       <c r="C53">
-        <f>C51+$B$53</f>
+        <f t="shared" ref="C53:N53" si="6">C51+$B$53</f>
         <v>177</v>
       </c>
       <c r="D53">
-        <f>D51+$B$53</f>
+        <f t="shared" si="6"/>
         <v>227</v>
       </c>
       <c r="E53">
-        <f>E51+$B$53</f>
+        <f t="shared" si="6"/>
         <v>277</v>
       </c>
       <c r="F53">
-        <f>F51+$B$53</f>
+        <f t="shared" si="6"/>
         <v>362</v>
       </c>
       <c r="G53">
-        <f>G51+$B$53</f>
+        <f t="shared" si="6"/>
         <v>412</v>
       </c>
       <c r="H53">
-        <f>H51+$B$53</f>
+        <f t="shared" si="6"/>
         <v>532</v>
       </c>
       <c r="I53">
-        <f>I51+$B$53</f>
+        <f t="shared" si="6"/>
         <v>622</v>
       </c>
       <c r="J53">
-        <f>J51+$B$53</f>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="K53">
-        <f>K51+$B$53</f>
+        <f t="shared" si="6"/>
         <v>722</v>
       </c>
       <c r="L53">
-        <f>L51+$B$53</f>
+        <f t="shared" si="6"/>
         <v>802</v>
       </c>
       <c r="M53">
-        <f>M51+$B$53</f>
+        <f t="shared" si="6"/>
         <v>892</v>
       </c>
       <c r="N53">
-        <f>N51+$B$53</f>
+        <f t="shared" si="6"/>
         <v>992</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>3</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>66237</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -1619,12 +1619,12 @@
         <v>730</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -1632,55 +1632,55 @@
         <v>172</v>
       </c>
       <c r="C58">
-        <f>C56+$B$53</f>
+        <f t="shared" ref="C58:N58" si="7">C56+$B$53</f>
         <v>183</v>
       </c>
       <c r="D58">
-        <f>D56+$B$53</f>
+        <f t="shared" si="7"/>
         <v>238</v>
       </c>
       <c r="E58">
-        <f>E56+$B$53</f>
+        <f t="shared" si="7"/>
         <v>282</v>
       </c>
       <c r="F58">
-        <f>F56+$B$53</f>
+        <f t="shared" si="7"/>
         <v>352</v>
       </c>
       <c r="G58">
-        <f>G56+$B$53</f>
+        <f t="shared" si="7"/>
         <v>412</v>
       </c>
       <c r="H58">
-        <f>H56+$B$53</f>
+        <f t="shared" si="7"/>
         <v>492</v>
       </c>
       <c r="I58">
-        <f>I56+$B$53</f>
+        <f t="shared" si="7"/>
         <v>547</v>
       </c>
       <c r="J58">
-        <f>J56+$B$53</f>
+        <f t="shared" si="7"/>
         <v>712</v>
       </c>
       <c r="K58">
-        <f>K56+$B$53</f>
+        <f t="shared" si="7"/>
         <v>772</v>
       </c>
       <c r="L58">
-        <f>L56+$B$53</f>
+        <f t="shared" si="7"/>
         <v>812</v>
       </c>
       <c r="M58">
-        <f>M56+$B$53</f>
+        <f t="shared" si="7"/>
         <v>872</v>
       </c>
       <c r="N58">
-        <f>N56+$B$53</f>
+        <f t="shared" si="7"/>
         <v>902</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>3</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>67223</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -1777,12 +1777,12 @@
         <v>820</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -1794,59 +1794,59 @@
         <v>89</v>
       </c>
       <c r="D64">
-        <f t="shared" ref="D64:N64" si="0">D62+$B$64</f>
+        <f t="shared" ref="D64:I64" si="8">D62+$B$64</f>
         <v>141</v>
       </c>
       <c r="E64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>191</v>
       </c>
       <c r="F64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>276</v>
       </c>
       <c r="G64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>326</v>
       </c>
       <c r="H64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>416</v>
       </c>
       <c r="I64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>486</v>
       </c>
       <c r="J64">
-        <f>J62+$B$64</f>
+        <f t="shared" ref="J64:P64" si="9">J62+$B$64</f>
         <v>536</v>
       </c>
       <c r="K64">
-        <f>K62+$B$64</f>
+        <f t="shared" si="9"/>
         <v>586</v>
       </c>
       <c r="L64">
-        <f>L62+$B$64</f>
+        <f t="shared" si="9"/>
         <v>636</v>
       </c>
       <c r="M64">
-        <f>M62+$B$64</f>
+        <f t="shared" si="9"/>
         <v>716</v>
       </c>
       <c r="N64">
-        <f>N62+$B$64</f>
+        <f t="shared" si="9"/>
         <v>786</v>
       </c>
       <c r="O64">
-        <f>O62+$B$64</f>
+        <f t="shared" si="9"/>
         <v>831</v>
       </c>
       <c r="P64">
-        <f>P62+$B$64</f>
+        <f t="shared" si="9"/>
         <v>906</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>3</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>76254</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -1943,12 +1943,12 @@
         <v>800</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -1960,55 +1960,55 @@
         <v>97</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:N69" si="1">D67+$B$64</f>
+        <f t="shared" ref="D69:J69" si="10">D67+$B$64</f>
         <v>152</v>
       </c>
       <c r="E69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>186</v>
       </c>
       <c r="F69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>236</v>
       </c>
       <c r="G69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>326</v>
       </c>
       <c r="H69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>376</v>
       </c>
       <c r="I69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>416</v>
       </c>
       <c r="J69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>496</v>
       </c>
       <c r="K69">
-        <f>K67+$B$64</f>
+        <f t="shared" ref="K69:P69" si="11">K67+$B$64</f>
         <v>576</v>
       </c>
       <c r="L69">
-        <f>L67+$B$64</f>
+        <f t="shared" si="11"/>
         <v>626</v>
       </c>
       <c r="M69">
-        <f>M67+$B$64</f>
+        <f t="shared" si="11"/>
         <v>686</v>
       </c>
       <c r="N69">
-        <f>N67+$B$64</f>
+        <f t="shared" si="11"/>
         <v>726</v>
       </c>
       <c r="O69">
-        <f>O67+$B$64</f>
+        <f t="shared" si="11"/>
         <v>816</v>
       </c>
       <c r="P69">
-        <f>P67+$B$64</f>
+        <f t="shared" si="11"/>
         <v>886</v>
       </c>
     </row>
